--- a/R/weights.xlsx
+++ b/R/weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upedumx-my.sharepoint.com/personal/0251520_up_edu_mx/Documents/GitHub/skope/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{3BC8B6D1-3F03-4C1D-9101-91072B43785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E6E27A-23FD-47A6-A650-6F75C1685CF3}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{3BC8B6D1-3F03-4C1D-9101-91072B43785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8FBD6A-34B5-409F-8ED5-900A6CD486FC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{97545740-FF96-4EF7-B489-491DA3D4A5DA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="350">
   <si>
     <t>ÍNDICE NACIONAL DE PRECIOS AL CONSUMIDOR</t>
   </si>
@@ -2476,6 +2476,21 @@
     <xf numFmtId="165" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2483,9 +2498,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2536,21 +2548,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2574,6 +2571,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2707,6 +2707,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3034,122 +3038,122 @@
   <sheetData>
     <row r="1" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="23" x14ac:dyDescent="0.5">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
     </row>
     <row r="3" spans="1:21" ht="26.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="157" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
     </row>
     <row r="6" spans="1:21" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="158" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="154"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
     </row>
     <row r="7" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
@@ -3174,82 +3178,82 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="164" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="159" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="165"/>
       <c r="S8" s="93"/>
-      <c r="T8" s="162" t="s">
+      <c r="T8" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="146" t="s">
+      <c r="U8" s="151" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="167" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149" t="s">
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="169" t="s">
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149" t="s">
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="150"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="154"/>
       <c r="S9" s="94"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="147"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="152"/>
     </row>
     <row r="10" spans="1:21" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="156"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="167"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="169"/>
+      <c r="L10" s="150"/>
       <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3291,8 +3295,8 @@
         <v>24</v>
       </c>
       <c r="S10" s="94"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="148"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="153"/>
     </row>
     <row r="11" spans="1:21" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
@@ -15387,14 +15391,14 @@
       <c r="T322" s="28"/>
     </row>
     <row r="323" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="166" t="s">
+      <c r="A323" s="146" t="s">
         <v>334</v>
       </c>
-      <c r="B323" s="166"/>
-      <c r="C323" s="166"/>
-      <c r="D323" s="166"/>
-      <c r="E323" s="166"/>
-      <c r="F323" s="166"/>
+      <c r="B323" s="146"/>
+      <c r="C323" s="146"/>
+      <c r="D323" s="146"/>
+      <c r="E323" s="146"/>
+      <c r="F323" s="146"/>
       <c r="G323" s="28"/>
       <c r="H323" s="28"/>
       <c r="I323" s="28"/>
@@ -15411,12 +15415,12 @@
       <c r="T323" s="28"/>
     </row>
     <row r="324" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A324" s="166"/>
-      <c r="B324" s="166"/>
-      <c r="C324" s="166"/>
-      <c r="D324" s="166"/>
-      <c r="E324" s="166"/>
-      <c r="F324" s="166"/>
+      <c r="A324" s="146"/>
+      <c r="B324" s="146"/>
+      <c r="C324" s="146"/>
+      <c r="D324" s="146"/>
+      <c r="E324" s="146"/>
+      <c r="F324" s="146"/>
       <c r="G324" s="28"/>
       <c r="H324" s="28"/>
       <c r="I324" s="28"/>
@@ -15433,12 +15437,12 @@
       <c r="T324" s="28"/>
     </row>
     <row r="325" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A325" s="166"/>
-      <c r="B325" s="166"/>
-      <c r="C325" s="166"/>
-      <c r="D325" s="166"/>
-      <c r="E325" s="166"/>
-      <c r="F325" s="166"/>
+      <c r="A325" s="146"/>
+      <c r="B325" s="146"/>
+      <c r="C325" s="146"/>
+      <c r="D325" s="146"/>
+      <c r="E325" s="146"/>
+      <c r="F325" s="146"/>
       <c r="G325" s="28"/>
       <c r="H325" s="28"/>
       <c r="I325" s="28"/>
@@ -15455,12 +15459,12 @@
       <c r="T325" s="28"/>
     </row>
     <row r="326" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A326" s="166"/>
-      <c r="B326" s="166"/>
-      <c r="C326" s="166"/>
-      <c r="D326" s="166"/>
-      <c r="E326" s="166"/>
-      <c r="F326" s="166"/>
+      <c r="A326" s="146"/>
+      <c r="B326" s="146"/>
+      <c r="C326" s="146"/>
+      <c r="D326" s="146"/>
+      <c r="E326" s="146"/>
+      <c r="F326" s="146"/>
       <c r="G326" s="28"/>
       <c r="H326" s="28"/>
       <c r="I326" s="28"/>
@@ -15478,11 +15482,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A323:F326"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="U8:U10"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:R9"/>
@@ -15497,6 +15496,11 @@
     <mergeCell ref="L8:R8"/>
     <mergeCell ref="T8:T10"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A323:F326"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15512,7 +15516,7 @@
       <pane xSplit="3" ySplit="12" topLeftCell="D291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A307" sqref="A307:B307"/>
+      <selection pane="bottomRight" activeCell="N300" sqref="N300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15533,126 +15537,126 @@
   <sheetData>
     <row r="1" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="23" x14ac:dyDescent="0.5">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
       <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="26.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
       <c r="U3" s="39"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="158" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
       <c r="U5" s="40"/>
     </row>
     <row r="6" spans="1:21" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="154"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
       <c r="U6" s="40"/>
     </row>
     <row r="7" spans="1:21" ht="23" thickBot="1" x14ac:dyDescent="0.5">
@@ -15679,82 +15683,82 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="C8" s="164" t="s">
         <v>328</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="159" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="165"/>
       <c r="S8" s="93"/>
-      <c r="T8" s="173" t="s">
+      <c r="T8" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="176" t="s">
+      <c r="U8" s="175" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="172"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="167" t="s">
+      <c r="A9" s="171"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149" t="s">
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="167" t="s">
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149" t="s">
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="150"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="154"/>
       <c r="S9" s="94"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="177"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="176"/>
     </row>
     <row r="10" spans="1:21" s="5" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="172"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="167"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
@@ -15776,7 +15780,7 @@
       <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="167"/>
+      <c r="L10" s="147"/>
       <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
@@ -15796,8 +15800,8 @@
         <v>24</v>
       </c>
       <c r="S10" s="94"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="178"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="177"/>
     </row>
     <row r="11" spans="1:21" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
@@ -27436,47 +27440,47 @@
       <c r="U317" s="48"/>
     </row>
     <row r="318" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="170" t="s">
+      <c r="A318" s="178" t="s">
         <v>331</v>
       </c>
-      <c r="B318" s="170"/>
-      <c r="C318" s="170"/>
-      <c r="D318" s="170"/>
-      <c r="E318" s="170"/>
-      <c r="F318" s="170"/>
+      <c r="B318" s="178"/>
+      <c r="C318" s="178"/>
+      <c r="D318" s="178"/>
+      <c r="E318" s="178"/>
+      <c r="F318" s="178"/>
       <c r="N318" s="46"/>
       <c r="T318" s="48"/>
       <c r="U318" s="48"/>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A319" s="170"/>
-      <c r="B319" s="170"/>
-      <c r="C319" s="170"/>
-      <c r="D319" s="170"/>
-      <c r="E319" s="170"/>
-      <c r="F319" s="170"/>
+      <c r="A319" s="178"/>
+      <c r="B319" s="178"/>
+      <c r="C319" s="178"/>
+      <c r="D319" s="178"/>
+      <c r="E319" s="178"/>
+      <c r="F319" s="178"/>
       <c r="N319" s="46"/>
       <c r="T319" s="48"/>
       <c r="U319" s="48"/>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A320" s="170"/>
-      <c r="B320" s="170"/>
-      <c r="C320" s="170"/>
-      <c r="D320" s="170"/>
-      <c r="E320" s="170"/>
-      <c r="F320" s="170"/>
+      <c r="A320" s="178"/>
+      <c r="B320" s="178"/>
+      <c r="C320" s="178"/>
+      <c r="D320" s="178"/>
+      <c r="E320" s="178"/>
+      <c r="F320" s="178"/>
       <c r="N320" s="46"/>
       <c r="T320" s="48"/>
       <c r="U320" s="48"/>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A321" s="170"/>
-      <c r="B321" s="170"/>
-      <c r="C321" s="170"/>
-      <c r="D321" s="170"/>
-      <c r="E321" s="170"/>
-      <c r="F321" s="170"/>
+      <c r="A321" s="178"/>
+      <c r="B321" s="178"/>
+      <c r="C321" s="178"/>
+      <c r="D321" s="178"/>
+      <c r="E321" s="178"/>
+      <c r="F321" s="178"/>
       <c r="N321" s="46"/>
       <c r="T321" s="48"/>
       <c r="U321" s="48"/>
@@ -27508,6 +27512,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A318:F321"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="A2:T2"/>
@@ -27521,12 +27531,6 @@
     <mergeCell ref="L8:R8"/>
     <mergeCell ref="T8:T10"/>
     <mergeCell ref="U8:U10"/>
-    <mergeCell ref="A318:F321"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27536,10 +27540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F7CCD-3196-4D05-81B7-16FA9B976A2F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27557,66 +27561,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>27.872473894979642</v>
+        <v>37.533791983220667</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4.4098208093312392</v>
+        <v>39.207746267905328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>23.785505788083391</v>
+        <v>10.657683224792716</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5">
-        <v>4.9642020659667354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6">
-        <v>9.4984374517109966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7">
-        <v>13.72270324940788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8">
-        <v>7.286530543275429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>8.4603261972446742</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
